--- a/data/pca/factorExposure/factorExposure_2016-03-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01082788217281471</v>
+        <v>-0.01524218698946426</v>
       </c>
       <c r="C2">
-        <v>0.0569141888082048</v>
+        <v>0.04003151781083652</v>
       </c>
       <c r="D2">
-        <v>0.03187349530481873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07606902856150718</v>
+      </c>
+      <c r="E2">
+        <v>-0.1273732747707359</v>
+      </c>
+      <c r="F2">
+        <v>0.03906842912686509</v>
+      </c>
+      <c r="G2">
+        <v>-0.0007382917745822705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04108087443456699</v>
+        <v>-0.02569745499087758</v>
       </c>
       <c r="C3">
-        <v>0.1252073675851741</v>
+        <v>0.06787909118133277</v>
       </c>
       <c r="D3">
-        <v>0.05141336686713498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07592773777803079</v>
+      </c>
+      <c r="E3">
+        <v>-0.0789043086020709</v>
+      </c>
+      <c r="F3">
+        <v>-0.05974189087159251</v>
+      </c>
+      <c r="G3">
+        <v>0.09440622533158968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06227118538211598</v>
+        <v>-0.0623781951061604</v>
       </c>
       <c r="C4">
-        <v>0.06214387137579253</v>
+        <v>0.06196557842411851</v>
       </c>
       <c r="D4">
-        <v>0.02103613208338622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06766340011951347</v>
+      </c>
+      <c r="E4">
+        <v>-0.117478841281805</v>
+      </c>
+      <c r="F4">
+        <v>-0.02175464992949454</v>
+      </c>
+      <c r="G4">
+        <v>-0.03761761891218398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04124632894346762</v>
+        <v>-0.03901114174103487</v>
       </c>
       <c r="C6">
-        <v>0.0369235164774924</v>
+        <v>0.0266527565497484</v>
       </c>
       <c r="D6">
-        <v>0.02061594306283942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07405108680681159</v>
+      </c>
+      <c r="E6">
+        <v>-0.1071019666995496</v>
+      </c>
+      <c r="F6">
+        <v>-0.02393719938714505</v>
+      </c>
+      <c r="G6">
+        <v>0.001637853573500482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02859536377187149</v>
+        <v>-0.02221057458817278</v>
       </c>
       <c r="C7">
-        <v>0.03576029764478166</v>
+        <v>0.03433609938171255</v>
       </c>
       <c r="D7">
-        <v>0.001173226395695419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05610674561255646</v>
+      </c>
+      <c r="E7">
+        <v>-0.09576612764277824</v>
+      </c>
+      <c r="F7">
+        <v>-0.002428370550807869</v>
+      </c>
+      <c r="G7">
+        <v>-0.08971729023762755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.009753633642054239</v>
+        <v>-0.007998017625495721</v>
       </c>
       <c r="C8">
-        <v>0.04487275051510609</v>
+        <v>0.036072608058628</v>
       </c>
       <c r="D8">
-        <v>0.02507117230370628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04770606848423781</v>
+      </c>
+      <c r="E8">
+        <v>-0.07424118205850484</v>
+      </c>
+      <c r="F8">
+        <v>-0.01560760064076478</v>
+      </c>
+      <c r="G8">
+        <v>0.003633726385443252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03844259603106109</v>
+        <v>-0.04241959537103084</v>
       </c>
       <c r="C9">
-        <v>0.04532377379359782</v>
+        <v>0.04867925216913321</v>
       </c>
       <c r="D9">
-        <v>0.01912247075333178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.05738988452125304</v>
+      </c>
+      <c r="E9">
+        <v>-0.09957928973866725</v>
+      </c>
+      <c r="F9">
+        <v>-0.005117707300259022</v>
+      </c>
+      <c r="G9">
+        <v>-0.04731701746931182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.06957305555717154</v>
+        <v>-0.09811867378530387</v>
       </c>
       <c r="C10">
-        <v>-0.1863292806473588</v>
+        <v>-0.2011167892869556</v>
       </c>
       <c r="D10">
-        <v>0.003324446228413805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.007530828846748321</v>
+      </c>
+      <c r="E10">
+        <v>-0.04430658874460007</v>
+      </c>
+      <c r="F10">
+        <v>-0.005630699101091952</v>
+      </c>
+      <c r="G10">
+        <v>-0.02640485213098295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04396335939529097</v>
+        <v>-0.03820793717848503</v>
       </c>
       <c r="C11">
-        <v>0.05007333456198197</v>
+        <v>0.04718229804626427</v>
       </c>
       <c r="D11">
-        <v>0.01602388934744675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04027667859171872</v>
+      </c>
+      <c r="E11">
+        <v>-0.04771404704422549</v>
+      </c>
+      <c r="F11">
+        <v>-0.00653766530236121</v>
+      </c>
+      <c r="G11">
+        <v>-0.05998312038679593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04649390034806113</v>
+        <v>-0.04020341346698548</v>
       </c>
       <c r="C12">
-        <v>0.04473930182835545</v>
+        <v>0.04490958242752364</v>
       </c>
       <c r="D12">
-        <v>-0.002565618802645784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03421731911521177</v>
+      </c>
+      <c r="E12">
+        <v>-0.05807981148846723</v>
+      </c>
+      <c r="F12">
+        <v>-0.004151926476132977</v>
+      </c>
+      <c r="G12">
+        <v>-0.05408318718323759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01601148962060234</v>
+        <v>-0.01544621566773297</v>
       </c>
       <c r="C13">
-        <v>0.05273787532015648</v>
+        <v>0.04082258441656096</v>
       </c>
       <c r="D13">
-        <v>0.00426370860940371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06512975765392474</v>
+      </c>
+      <c r="E13">
+        <v>-0.1361775472887112</v>
+      </c>
+      <c r="F13">
+        <v>-0.0140177874141571</v>
+      </c>
+      <c r="G13">
+        <v>-0.05305083628298163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01203731817233757</v>
+        <v>-0.007467975236566365</v>
       </c>
       <c r="C14">
-        <v>0.03484077559682169</v>
+        <v>0.02965042339362706</v>
       </c>
       <c r="D14">
-        <v>-0.002963286584332507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04088708815022438</v>
+      </c>
+      <c r="E14">
+        <v>-0.09043168905585466</v>
+      </c>
+      <c r="F14">
+        <v>0.01539799176309109</v>
+      </c>
+      <c r="G14">
+        <v>-0.05760002383413495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001679405813519062</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00651005215707307</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01101350748253339</v>
+      </c>
+      <c r="E15">
+        <v>-0.0118539119260271</v>
+      </c>
+      <c r="F15">
+        <v>0.001236535753953816</v>
+      </c>
+      <c r="G15">
+        <v>-0.001558059541143152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04171953736556266</v>
+        <v>-0.0365064054363476</v>
       </c>
       <c r="C16">
-        <v>0.04711072549993755</v>
+        <v>0.04431744516020545</v>
       </c>
       <c r="D16">
-        <v>0.001835178727412648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.03459970007713053</v>
+      </c>
+      <c r="E16">
+        <v>-0.06203308629006326</v>
+      </c>
+      <c r="F16">
+        <v>0.008847763169317248</v>
+      </c>
+      <c r="G16">
+        <v>-0.0496636514399073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02548594083714486</v>
+        <v>-0.01936234304800119</v>
       </c>
       <c r="C19">
-        <v>0.06047142901702306</v>
+        <v>0.0439006856548166</v>
       </c>
       <c r="D19">
-        <v>0.06225125826824272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0946594955904948</v>
+      </c>
+      <c r="E19">
+        <v>-0.1284588964697509</v>
+      </c>
+      <c r="F19">
+        <v>0.01749921988886274</v>
+      </c>
+      <c r="G19">
+        <v>-0.002894686839289105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02069257280034015</v>
+        <v>-0.01698981816910058</v>
       </c>
       <c r="C20">
-        <v>0.04747045164464099</v>
+        <v>0.03850494158408544</v>
       </c>
       <c r="D20">
-        <v>0.002580978263032027</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04760959731049222</v>
+      </c>
+      <c r="E20">
+        <v>-0.1051514940657877</v>
+      </c>
+      <c r="F20">
+        <v>0.001150266641189382</v>
+      </c>
+      <c r="G20">
+        <v>-0.03180035902876351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01751074375604857</v>
+        <v>-0.01471790037522672</v>
       </c>
       <c r="C21">
-        <v>0.05665256730484619</v>
+        <v>0.04348636261588772</v>
       </c>
       <c r="D21">
-        <v>0.01742212956720114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07337371108099636</v>
+      </c>
+      <c r="E21">
+        <v>-0.1573016763277446</v>
+      </c>
+      <c r="F21">
+        <v>0.0167231081612927</v>
+      </c>
+      <c r="G21">
+        <v>-0.06640456454740386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0006829653791831097</v>
+        <v>-0.005081042238207996</v>
       </c>
       <c r="C22">
-        <v>0.01335384605247754</v>
+        <v>0.02900906529521377</v>
       </c>
       <c r="D22">
-        <v>0.02463548969419418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0644069076141351</v>
+      </c>
+      <c r="E22">
+        <v>-0.07707110361076742</v>
+      </c>
+      <c r="F22">
+        <v>-0.0611349084415335</v>
+      </c>
+      <c r="G22">
+        <v>0.02700026870935074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0006936621960738185</v>
+        <v>-0.005208387133155107</v>
       </c>
       <c r="C23">
-        <v>0.0133670355817249</v>
+        <v>0.02897413358528278</v>
       </c>
       <c r="D23">
-        <v>0.02460098797281368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06362765750899504</v>
+      </c>
+      <c r="E23">
+        <v>-0.07723270273863604</v>
+      </c>
+      <c r="F23">
+        <v>-0.06115082823267223</v>
+      </c>
+      <c r="G23">
+        <v>0.02662625368673832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03896853358145082</v>
+        <v>-0.03760372189754339</v>
       </c>
       <c r="C24">
-        <v>0.04836808278359353</v>
+        <v>0.05226421514007275</v>
       </c>
       <c r="D24">
-        <v>0.008393658189283606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.03681140375739368</v>
+      </c>
+      <c r="E24">
+        <v>-0.06765817215485068</v>
+      </c>
+      <c r="F24">
+        <v>0.004854043005334611</v>
+      </c>
+      <c r="G24">
+        <v>-0.0640719317608977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04958686827603839</v>
+        <v>-0.04470131350754211</v>
       </c>
       <c r="C25">
-        <v>0.05728698068153905</v>
+        <v>0.05494229041095575</v>
       </c>
       <c r="D25">
-        <v>0.0008453252223803069</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03322511202480497</v>
+      </c>
+      <c r="E25">
+        <v>-0.05971414258433659</v>
+      </c>
+      <c r="F25">
+        <v>-0.00826329462792798</v>
+      </c>
+      <c r="G25">
+        <v>-0.0710164365512449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02015999784795094</v>
+        <v>-0.01808724972121342</v>
       </c>
       <c r="C26">
-        <v>0.01384270483435657</v>
+        <v>0.01519861023153472</v>
       </c>
       <c r="D26">
-        <v>0.01139611401149839</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03807129387627081</v>
+      </c>
+      <c r="E26">
+        <v>-0.07115928495377721</v>
+      </c>
+      <c r="F26">
+        <v>0.01341634704650105</v>
+      </c>
+      <c r="G26">
+        <v>-0.03073610382083028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08941077070367438</v>
+        <v>-0.1365836528706443</v>
       </c>
       <c r="C28">
-        <v>-0.2579494333930705</v>
+        <v>-0.2616927181040438</v>
       </c>
       <c r="D28">
-        <v>-0.007406354870308281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02528594617085529</v>
+      </c>
+      <c r="E28">
+        <v>-0.06474256630514999</v>
+      </c>
+      <c r="F28">
+        <v>-0.00534216349802304</v>
+      </c>
+      <c r="G28">
+        <v>-0.05523542966857749</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01054565838898695</v>
+        <v>-0.00786961576466496</v>
       </c>
       <c r="C29">
-        <v>0.03005621516726075</v>
+        <v>0.02732668678335013</v>
       </c>
       <c r="D29">
-        <v>-0.007764179948054698</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03364364388540781</v>
+      </c>
+      <c r="E29">
+        <v>-0.08445764189701811</v>
+      </c>
+      <c r="F29">
+        <v>0.005392338838549802</v>
+      </c>
+      <c r="G29">
+        <v>-0.06095257191600591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04666886721828298</v>
+        <v>-0.04626471474411741</v>
       </c>
       <c r="C30">
-        <v>0.04903032492861958</v>
+        <v>0.05499559621930896</v>
       </c>
       <c r="D30">
-        <v>0.07878007662374975</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1207579661480204</v>
+      </c>
+      <c r="E30">
+        <v>-0.1095464169960511</v>
+      </c>
+      <c r="F30">
+        <v>0.003654712052443651</v>
+      </c>
+      <c r="G30">
+        <v>-0.0009662032483765508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06432996967852259</v>
+        <v>-0.06203045321264084</v>
       </c>
       <c r="C31">
-        <v>0.04388174297002798</v>
+        <v>0.05901115259244341</v>
       </c>
       <c r="D31">
-        <v>-0.04136664657325641</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.001615343399835761</v>
+      </c>
+      <c r="E31">
+        <v>-0.09045392806370006</v>
+      </c>
+      <c r="F31">
+        <v>-0.03013483463070091</v>
+      </c>
+      <c r="G31">
+        <v>-0.03790189500924763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0070154507412822</v>
+        <v>-0.01120572641315713</v>
       </c>
       <c r="C32">
-        <v>0.03882055250226782</v>
+        <v>0.03413949434056063</v>
       </c>
       <c r="D32">
-        <v>0.06089203010408037</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06936091302157472</v>
+      </c>
+      <c r="E32">
+        <v>-0.07894111448178948</v>
+      </c>
+      <c r="F32">
+        <v>0.01662358423512144</v>
+      </c>
+      <c r="G32">
+        <v>-0.06073031644536904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03504252853242665</v>
+        <v>-0.02901060623174912</v>
       </c>
       <c r="C33">
-        <v>0.05818926182844208</v>
+        <v>0.05146332752564341</v>
       </c>
       <c r="D33">
-        <v>0.03826181749988036</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08564693411874086</v>
+      </c>
+      <c r="E33">
+        <v>-0.1191139503345249</v>
+      </c>
+      <c r="F33">
+        <v>-0.01053504792669196</v>
+      </c>
+      <c r="G33">
+        <v>-0.06032970749550014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04490824626914228</v>
+        <v>-0.040749562087608</v>
       </c>
       <c r="C34">
-        <v>0.06325546263154432</v>
+        <v>0.06237399069857515</v>
       </c>
       <c r="D34">
-        <v>0.02123612823303758</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04316922038324061</v>
+      </c>
+      <c r="E34">
+        <v>-0.04812753833827998</v>
+      </c>
+      <c r="F34">
+        <v>0.004442254993642251</v>
+      </c>
+      <c r="G34">
+        <v>-0.07211485605721414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1.51640231313794e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2.192982668583064e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>6.142676991075116e-05</v>
+      </c>
+      <c r="E35">
+        <v>0.0006040906534241096</v>
+      </c>
+      <c r="F35">
+        <v>8.737353121314511e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.0004026734754208276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01893664200590648</v>
+        <v>-0.01692922488019488</v>
       </c>
       <c r="C36">
-        <v>0.01629474988417587</v>
+        <v>0.01230416711825526</v>
       </c>
       <c r="D36">
-        <v>0.00143077887168903</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03702819979075753</v>
+      </c>
+      <c r="E36">
+        <v>-0.08300094900304586</v>
+      </c>
+      <c r="F36">
+        <v>-0.0006385726490453053</v>
+      </c>
+      <c r="G36">
+        <v>-0.04697879382554648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03093528334474575</v>
+        <v>-0.02419717536904717</v>
       </c>
       <c r="C38">
-        <v>0.03246568464328644</v>
+        <v>0.02459920931927172</v>
       </c>
       <c r="D38">
-        <v>-0.01587469130107708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02939046364476533</v>
+      </c>
+      <c r="E38">
+        <v>-0.07235503219026451</v>
+      </c>
+      <c r="F38">
+        <v>-0.001279192501260622</v>
+      </c>
+      <c r="G38">
+        <v>-0.00244567974589888</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04944047380917</v>
+        <v>-0.04341704884327016</v>
       </c>
       <c r="C39">
-        <v>0.05756339330703235</v>
+        <v>0.06051173401066373</v>
       </c>
       <c r="D39">
-        <v>0.02327771987129385</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06563050794796133</v>
+      </c>
+      <c r="E39">
+        <v>-0.07966740530602948</v>
+      </c>
+      <c r="F39">
+        <v>0.02214943851699828</v>
+      </c>
+      <c r="G39">
+        <v>-0.05543878165198431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01258339437628645</v>
+        <v>-0.01541992833533553</v>
       </c>
       <c r="C40">
-        <v>0.05534788668867763</v>
+        <v>0.03919389800562825</v>
       </c>
       <c r="D40">
-        <v>-0.00206585184280885</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04165078976827921</v>
+      </c>
+      <c r="E40">
+        <v>-0.1195331892297667</v>
+      </c>
+      <c r="F40">
+        <v>-0.026902432909118</v>
+      </c>
+      <c r="G40">
+        <v>-0.05319841954369431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02440625463355848</v>
+        <v>-0.02090042096654433</v>
       </c>
       <c r="C41">
-        <v>0.01346735375618166</v>
+        <v>0.009517647323329697</v>
       </c>
       <c r="D41">
-        <v>-0.001711713917734049</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02436148842225098</v>
+      </c>
+      <c r="E41">
+        <v>-0.07885478277747837</v>
+      </c>
+      <c r="F41">
+        <v>0.00085992530537638</v>
+      </c>
+      <c r="G41">
+        <v>-0.03215655492342374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04672067880878726</v>
+        <v>-0.03270339407893062</v>
       </c>
       <c r="C43">
-        <v>0.03369324711335782</v>
+        <v>0.02404294962637689</v>
       </c>
       <c r="D43">
-        <v>0.009170754814141846</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.05229216689044094</v>
+      </c>
+      <c r="E43">
+        <v>-0.09299501103448067</v>
+      </c>
+      <c r="F43">
+        <v>-0.01976607931388415</v>
+      </c>
+      <c r="G43">
+        <v>-0.05178794780395163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01886176738651862</v>
+        <v>-0.01980479613381794</v>
       </c>
       <c r="C44">
-        <v>0.06973060987701689</v>
+        <v>0.04788633205859651</v>
       </c>
       <c r="D44">
-        <v>-0.0143168532524722</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03999465007966679</v>
+      </c>
+      <c r="E44">
+        <v>-0.1141205832882438</v>
+      </c>
+      <c r="F44">
+        <v>0.01411707266147575</v>
+      </c>
+      <c r="G44">
+        <v>-0.02867314171224426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01403542442026836</v>
+        <v>-0.01293976879026307</v>
       </c>
       <c r="C46">
-        <v>0.0261352017888889</v>
+        <v>0.02865798975568071</v>
       </c>
       <c r="D46">
-        <v>-0.01481169435298902</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02848494401583814</v>
+      </c>
+      <c r="E46">
+        <v>-0.09719869203738871</v>
+      </c>
+      <c r="F46">
+        <v>0.01678804062657267</v>
+      </c>
+      <c r="G46">
+        <v>-0.07217570319937175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09225364616561385</v>
+        <v>-0.09348208425847374</v>
       </c>
       <c r="C47">
-        <v>0.06522260773997114</v>
+        <v>0.07826279621831957</v>
       </c>
       <c r="D47">
-        <v>-0.05284094021472643</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0173185252123898</v>
+      </c>
+      <c r="E47">
+        <v>-0.07930454957232667</v>
+      </c>
+      <c r="F47">
+        <v>-0.02002578919674285</v>
+      </c>
+      <c r="G47">
+        <v>-0.06362213301767412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02068275661618355</v>
+        <v>-0.01907198928287288</v>
       </c>
       <c r="C48">
-        <v>0.011797763800973</v>
+        <v>0.01423541399154781</v>
       </c>
       <c r="D48">
-        <v>-0.02045066841759405</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02200302555522105</v>
+      </c>
+      <c r="E48">
+        <v>-0.09857506860540215</v>
+      </c>
+      <c r="F48">
+        <v>0.008036889960710232</v>
+      </c>
+      <c r="G48">
+        <v>-0.0515635965525886</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08563814175932115</v>
+        <v>-0.07335877284344394</v>
       </c>
       <c r="C50">
-        <v>0.08463043367912665</v>
+        <v>0.0746424387161455</v>
       </c>
       <c r="D50">
-        <v>-0.05687637262840432</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0003060428746956358</v>
+      </c>
+      <c r="E50">
+        <v>-0.09180644737727081</v>
+      </c>
+      <c r="F50">
+        <v>-0.05503212457890465</v>
+      </c>
+      <c r="G50">
+        <v>-0.0320693572191615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01492880428860039</v>
+        <v>-0.01117328975402391</v>
       </c>
       <c r="C51">
-        <v>0.04922811401172483</v>
+        <v>0.03045056917958844</v>
       </c>
       <c r="D51">
-        <v>0.04566263355195116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07054326993109544</v>
+      </c>
+      <c r="E51">
+        <v>-0.08591051322552114</v>
+      </c>
+      <c r="F51">
+        <v>0.01411295283324704</v>
+      </c>
+      <c r="G51">
+        <v>-0.02971034897035946</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08518468716293977</v>
+        <v>-0.09897367872311069</v>
       </c>
       <c r="C53">
-        <v>0.07818832131744852</v>
+        <v>0.08516356900337631</v>
       </c>
       <c r="D53">
-        <v>-0.0719522777981246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05594060037244992</v>
+      </c>
+      <c r="E53">
+        <v>-0.09042800741140315</v>
+      </c>
+      <c r="F53">
+        <v>-0.01556346323632803</v>
+      </c>
+      <c r="G53">
+        <v>-0.05662680284939178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03870523292760935</v>
+        <v>-0.0314829083167834</v>
       </c>
       <c r="C54">
-        <v>0.03145484409558861</v>
+        <v>0.02994758053836756</v>
       </c>
       <c r="D54">
-        <v>0.004535489687593954</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.04234994622269021</v>
+      </c>
+      <c r="E54">
+        <v>-0.09031031927131161</v>
+      </c>
+      <c r="F54">
+        <v>0.007230558909485822</v>
+      </c>
+      <c r="G54">
+        <v>-0.06250500710787371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08299647257708694</v>
+        <v>-0.09167762941507823</v>
       </c>
       <c r="C55">
-        <v>0.05118015877807368</v>
+        <v>0.06563954436461666</v>
       </c>
       <c r="D55">
-        <v>-0.06842301871983765</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05376999535980284</v>
+      </c>
+      <c r="E55">
+        <v>-0.05885269982466014</v>
+      </c>
+      <c r="F55">
+        <v>-0.02651371221665277</v>
+      </c>
+      <c r="G55">
+        <v>-0.02431315911826958</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1529076120284116</v>
+        <v>-0.1559838211110268</v>
       </c>
       <c r="C56">
-        <v>0.08173548716273317</v>
+        <v>0.09962353055734184</v>
       </c>
       <c r="D56">
-        <v>-0.07233096438522439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06051553471779728</v>
+      </c>
+      <c r="E56">
+        <v>-0.03914013757509503</v>
+      </c>
+      <c r="F56">
+        <v>-0.01063998722222641</v>
+      </c>
+      <c r="G56">
+        <v>-0.03207819150390738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05017049474652405</v>
+        <v>-0.03703420660652296</v>
       </c>
       <c r="C58">
-        <v>-0.003366584767492589</v>
+        <v>0.009540839634459154</v>
       </c>
       <c r="D58">
-        <v>0.1650048568534322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2668794333525977</v>
+      </c>
+      <c r="E58">
+        <v>-0.351036653252331</v>
+      </c>
+      <c r="F58">
+        <v>-0.1761980627901492</v>
+      </c>
+      <c r="G58">
+        <v>0.6301986149878547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1222086727972395</v>
+        <v>-0.1408822375039977</v>
       </c>
       <c r="C59">
-        <v>-0.2087833372256034</v>
+        <v>-0.1953749635527428</v>
       </c>
       <c r="D59">
-        <v>0.02944723230553543</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03380396604217609</v>
+      </c>
+      <c r="E59">
+        <v>-0.03469290995278598</v>
+      </c>
+      <c r="F59">
+        <v>0.02438191683739613</v>
+      </c>
+      <c r="G59">
+        <v>0.01780151847897958</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2940465671673347</v>
+        <v>-0.2671716275197988</v>
       </c>
       <c r="C60">
-        <v>0.1034632732850181</v>
+        <v>0.09601957588859951</v>
       </c>
       <c r="D60">
-        <v>0.2768516479375248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2490559299429755</v>
+      </c>
+      <c r="E60">
+        <v>0.2490628725251463</v>
+      </c>
+      <c r="F60">
+        <v>-0.1020481869778292</v>
+      </c>
+      <c r="G60">
+        <v>-0.04250479458148816</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04773240734229659</v>
+        <v>-0.04493916745654403</v>
       </c>
       <c r="C61">
-        <v>0.05401053931963415</v>
+        <v>0.05436289068126746</v>
       </c>
       <c r="D61">
-        <v>0.02029563157407154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05295581990908656</v>
+      </c>
+      <c r="E61">
+        <v>-0.07553370723352626</v>
+      </c>
+      <c r="F61">
+        <v>0.0008097919027039991</v>
+      </c>
+      <c r="G61">
+        <v>-0.06748099719524853</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01905431630755083</v>
+        <v>-0.01865291790484333</v>
       </c>
       <c r="C63">
-        <v>0.03460581386429996</v>
+        <v>0.03057938497589745</v>
       </c>
       <c r="D63">
-        <v>-0.02187743306570644</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0274060174965912</v>
+      </c>
+      <c r="E63">
+        <v>-0.09142941890729081</v>
+      </c>
+      <c r="F63">
+        <v>-0.01724576406369886</v>
+      </c>
+      <c r="G63">
+        <v>-0.0275544780712677</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05433244092455566</v>
+        <v>-0.05871908473384396</v>
       </c>
       <c r="C64">
-        <v>0.04608063007864849</v>
+        <v>0.05849118296888255</v>
       </c>
       <c r="D64">
-        <v>0.001756050861868808</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01829608838117778</v>
+      </c>
+      <c r="E64">
+        <v>-0.06129359923039066</v>
+      </c>
+      <c r="F64">
+        <v>0.0169178780572752</v>
+      </c>
+      <c r="G64">
+        <v>-0.08071353352674224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07841611669233958</v>
+        <v>-0.06482855388880987</v>
       </c>
       <c r="C65">
-        <v>0.02448949652632802</v>
+        <v>0.02437887720739721</v>
       </c>
       <c r="D65">
-        <v>0.05278533592293631</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0961475693256674</v>
+      </c>
+      <c r="E65">
+        <v>-0.06102508745860214</v>
+      </c>
+      <c r="F65">
+        <v>-0.03048461843843878</v>
+      </c>
+      <c r="G65">
+        <v>0.05896413139347491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06245479259829861</v>
+        <v>-0.05512693581919086</v>
       </c>
       <c r="C66">
-        <v>0.07692596925237787</v>
+        <v>0.07590940126223135</v>
       </c>
       <c r="D66">
-        <v>0.04011252455664642</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08810868127445227</v>
+      </c>
+      <c r="E66">
+        <v>-0.09161929877784289</v>
+      </c>
+      <c r="F66">
+        <v>0.003980279809553793</v>
+      </c>
+      <c r="G66">
+        <v>-0.05227576876408805</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05098178906001226</v>
+        <v>-0.04348405973446808</v>
       </c>
       <c r="C67">
-        <v>0.03175105801690831</v>
+        <v>0.02857512325971788</v>
       </c>
       <c r="D67">
-        <v>-0.02559325593867587</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.008257603124931271</v>
+      </c>
+      <c r="E67">
+        <v>-0.04407999707882158</v>
+      </c>
+      <c r="F67">
+        <v>-0.00297716301471868</v>
+      </c>
+      <c r="G67">
+        <v>-0.009862414045453894</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1229501545331141</v>
+        <v>-0.1468319310867889</v>
       </c>
       <c r="C68">
-        <v>-0.2844469608261669</v>
+        <v>-0.2452324741563911</v>
       </c>
       <c r="D68">
-        <v>-0.008083007103418962</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.007820025116095997</v>
+      </c>
+      <c r="E68">
+        <v>-0.05142074835088069</v>
+      </c>
+      <c r="F68">
+        <v>-0.01393012835374719</v>
+      </c>
+      <c r="G68">
+        <v>0.00640047666036901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09424708315548332</v>
+        <v>-0.08995920289572987</v>
       </c>
       <c r="C69">
-        <v>0.07280605015435201</v>
+        <v>0.0891129328733441</v>
       </c>
       <c r="D69">
-        <v>-0.04979244452013848</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.003712487786497496</v>
+      </c>
+      <c r="E69">
+        <v>-0.07833858117740919</v>
+      </c>
+      <c r="F69">
+        <v>0.0101133962261933</v>
+      </c>
+      <c r="G69">
+        <v>-0.07713271198340479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1127990773318015</v>
+        <v>-0.1419185883355392</v>
       </c>
       <c r="C71">
-        <v>-0.2606745430638031</v>
+        <v>-0.2458888546149957</v>
       </c>
       <c r="D71">
-        <v>0.008667031850619157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.009147587517594577</v>
+      </c>
+      <c r="E71">
+        <v>-0.07101139150778416</v>
+      </c>
+      <c r="F71">
+        <v>-0.03035280057743708</v>
+      </c>
+      <c r="G71">
+        <v>-0.0375463792506334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1010747281563862</v>
+        <v>-0.1062663487292699</v>
       </c>
       <c r="C72">
-        <v>0.04564023378994018</v>
+        <v>0.04829309145962167</v>
       </c>
       <c r="D72">
-        <v>0.01517662418945339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.05316670012107079</v>
+      </c>
+      <c r="E72">
+        <v>-0.05111810505732133</v>
+      </c>
+      <c r="F72">
+        <v>-0.02968682576850543</v>
+      </c>
+      <c r="G72">
+        <v>-0.05799349196144474</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3754947888247174</v>
+        <v>-0.3213842664186002</v>
       </c>
       <c r="C73">
-        <v>0.0658190385051604</v>
+        <v>0.07631667053560229</v>
       </c>
       <c r="D73">
-        <v>0.5808907872528438</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4900376811605617</v>
+      </c>
+      <c r="E73">
+        <v>0.5047269710199241</v>
+      </c>
+      <c r="F73">
+        <v>-0.1833836849473562</v>
+      </c>
+      <c r="G73">
+        <v>0.02545984931894157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1080828092083447</v>
+        <v>-0.1111668669394224</v>
       </c>
       <c r="C74">
-        <v>0.09290694671778432</v>
+        <v>0.09157533334969681</v>
       </c>
       <c r="D74">
-        <v>-0.0578981834705574</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04608526378790707</v>
+      </c>
+      <c r="E74">
+        <v>-0.06625837024255522</v>
+      </c>
+      <c r="F74">
+        <v>-0.03633060763317536</v>
+      </c>
+      <c r="G74">
+        <v>-0.01904240326350249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2572288078413145</v>
+        <v>-0.259419215825766</v>
       </c>
       <c r="C75">
-        <v>0.08630543986545781</v>
+        <v>0.1208216868681061</v>
       </c>
       <c r="D75">
-        <v>-0.1633678681138582</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1638736356531448</v>
+      </c>
+      <c r="E75">
+        <v>-0.001449330875199568</v>
+      </c>
+      <c r="F75">
+        <v>-0.007197841478301584</v>
+      </c>
+      <c r="G75">
+        <v>0.04550956619497796</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1187854507536291</v>
+        <v>-0.1304355335129724</v>
       </c>
       <c r="C76">
-        <v>0.0775982030482887</v>
+        <v>0.08852627614095024</v>
       </c>
       <c r="D76">
-        <v>-0.09382622286667212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07888515450261543</v>
+      </c>
+      <c r="E76">
+        <v>-0.08729891367466246</v>
+      </c>
+      <c r="F76">
+        <v>-0.005285172214530513</v>
+      </c>
+      <c r="G76">
+        <v>-0.02220645191067715</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08306908386699025</v>
+        <v>-0.06930888577633777</v>
       </c>
       <c r="C77">
-        <v>0.03491637139421309</v>
+        <v>0.05507730837285963</v>
       </c>
       <c r="D77">
-        <v>0.05333188133948875</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07767822993456615</v>
+      </c>
+      <c r="E77">
+        <v>-0.1206381161234579</v>
+      </c>
+      <c r="F77">
+        <v>0.2043551446216388</v>
+      </c>
+      <c r="G77">
+        <v>0.1262955723371332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04914041980441398</v>
+        <v>-0.04937439929886871</v>
       </c>
       <c r="C78">
-        <v>0.04108096433858029</v>
+        <v>0.05062466874818231</v>
       </c>
       <c r="D78">
-        <v>0.04140425123113304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08016968802643192</v>
+      </c>
+      <c r="E78">
+        <v>-0.08328777221499641</v>
+      </c>
+      <c r="F78">
+        <v>0.005809418099246014</v>
+      </c>
+      <c r="G78">
+        <v>-0.04986394233513068</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001422974270962434</v>
+        <v>-0.0357998078534961</v>
       </c>
       <c r="C79">
-        <v>0.001164513744684158</v>
+        <v>0.04974927778660931</v>
       </c>
       <c r="D79">
-        <v>0.00540517555008544</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.09249349549356788</v>
+      </c>
+      <c r="E79">
+        <v>-0.07432291773921904</v>
+      </c>
+      <c r="F79">
+        <v>-0.03278784461751617</v>
+      </c>
+      <c r="G79">
+        <v>-0.08228285472970166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0386759064560743</v>
+        <v>-0.03058648002076015</v>
       </c>
       <c r="C80">
-        <v>0.04755317043320207</v>
+        <v>0.04933904918487114</v>
       </c>
       <c r="D80">
-        <v>0.03575648139183998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04394487854166141</v>
+      </c>
+      <c r="E80">
+        <v>-0.02375528379884252</v>
+      </c>
+      <c r="F80">
+        <v>0.04303123548340923</v>
+      </c>
+      <c r="G80">
+        <v>-0.006477264846027497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.146692671951632</v>
+        <v>-0.1433702416575333</v>
       </c>
       <c r="C81">
-        <v>0.0676280921011852</v>
+        <v>0.08788942333679012</v>
       </c>
       <c r="D81">
-        <v>-0.1391238185856453</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1292720561010649</v>
+      </c>
+      <c r="E81">
+        <v>-0.05367617525476391</v>
+      </c>
+      <c r="F81">
+        <v>-0.007116271640321478</v>
+      </c>
+      <c r="G81">
+        <v>0.009595387580931135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2110248391795532</v>
+        <v>-0.2348484000951148</v>
       </c>
       <c r="C82">
-        <v>0.09030822768882389</v>
+        <v>0.1580449512152159</v>
       </c>
       <c r="D82">
-        <v>-0.1917957727820646</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2502610276038868</v>
+      </c>
+      <c r="E82">
+        <v>0.03787029837399349</v>
+      </c>
+      <c r="F82">
+        <v>0.04482607712664094</v>
+      </c>
+      <c r="G82">
+        <v>-0.3916415775851201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04328931988446887</v>
+        <v>-0.02991363857290614</v>
       </c>
       <c r="C83">
-        <v>0.03872227934678124</v>
+        <v>0.04758033483497452</v>
       </c>
       <c r="D83">
-        <v>0.04441871086781631</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03610898823064156</v>
+      </c>
+      <c r="E83">
+        <v>-0.03189122250176286</v>
+      </c>
+      <c r="F83">
+        <v>0.02517817580577492</v>
+      </c>
+      <c r="G83">
+        <v>0.007309733313187164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001213706033921717</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001316026218272615</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0008519820691923305</v>
+      </c>
+      <c r="E84">
+        <v>-0.005586079187456322</v>
+      </c>
+      <c r="F84">
+        <v>-0.001900904816258431</v>
+      </c>
+      <c r="G84">
+        <v>0.003658198137600813</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2178050358968162</v>
+        <v>-0.2017120267980387</v>
       </c>
       <c r="C85">
-        <v>0.09609788102500921</v>
+        <v>0.1124328054976365</v>
       </c>
       <c r="D85">
-        <v>-0.1747589151012661</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.143697123857972</v>
+      </c>
+      <c r="E85">
+        <v>0.02522342820376674</v>
+      </c>
+      <c r="F85">
+        <v>-0.07653703764588186</v>
+      </c>
+      <c r="G85">
+        <v>0.03803450757127839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01115485923601384</v>
+        <v>-0.01539671025378148</v>
       </c>
       <c r="C86">
-        <v>0.02748935648472773</v>
+        <v>0.01485070723645508</v>
       </c>
       <c r="D86">
-        <v>0.04009065119591004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.08010219906358421</v>
+      </c>
+      <c r="E86">
+        <v>-0.1023771879188403</v>
+      </c>
+      <c r="F86">
+        <v>0.019912835531439</v>
+      </c>
+      <c r="G86">
+        <v>-0.07203862297645451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03249763222919869</v>
+        <v>-0.03294445793740224</v>
       </c>
       <c r="C87">
-        <v>-0.001215223899811124</v>
+        <v>0.01138746394219491</v>
       </c>
       <c r="D87">
-        <v>0.05427816140217392</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09616491868270473</v>
+      </c>
+      <c r="E87">
+        <v>-0.1409349898940219</v>
+      </c>
+      <c r="F87">
+        <v>0.05066458713916484</v>
+      </c>
+      <c r="G87">
+        <v>0.02582701677772043</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1119322259352103</v>
+        <v>-0.09426529520475993</v>
       </c>
       <c r="C88">
-        <v>0.08143449625055768</v>
+        <v>0.06732602270845599</v>
       </c>
       <c r="D88">
-        <v>-0.02044819303103619</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01620930223576992</v>
+      </c>
+      <c r="E88">
+        <v>-0.05624732329790234</v>
+      </c>
+      <c r="F88">
+        <v>0.0176396937864827</v>
+      </c>
+      <c r="G88">
+        <v>-0.04397984653941042</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1747320832195861</v>
+        <v>-0.2127380139434667</v>
       </c>
       <c r="C89">
-        <v>-0.3834018466827429</v>
+        <v>-0.3852683060171881</v>
       </c>
       <c r="D89">
-        <v>-0.02914891782711627</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.00909024781313804</v>
+      </c>
+      <c r="E89">
+        <v>-0.07652083874150549</v>
+      </c>
+      <c r="F89">
+        <v>0.0708498478328471</v>
+      </c>
+      <c r="G89">
+        <v>-0.02776344542734262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.167768050784154</v>
+        <v>-0.1933141183977334</v>
       </c>
       <c r="C90">
-        <v>-0.3364993328927274</v>
+        <v>-0.3125653762695118</v>
       </c>
       <c r="D90">
-        <v>-0.03961279329104011</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01223338637715394</v>
+      </c>
+      <c r="E90">
+        <v>-0.06220602658511019</v>
+      </c>
+      <c r="F90">
+        <v>0.004956382079013998</v>
+      </c>
+      <c r="G90">
+        <v>-0.001753183254877147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1922830828679883</v>
+        <v>-0.1877656258768141</v>
       </c>
       <c r="C91">
-        <v>0.1202533899534268</v>
+        <v>0.1403606427997389</v>
       </c>
       <c r="D91">
-        <v>-0.1527634456072171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1352921404931795</v>
+      </c>
+      <c r="E91">
+        <v>-0.04948163632552766</v>
+      </c>
+      <c r="F91">
+        <v>-0.0002986939233476585</v>
+      </c>
+      <c r="G91">
+        <v>0.01618076780827809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1607461528352704</v>
+        <v>-0.179219424588151</v>
       </c>
       <c r="C92">
-        <v>-0.2904980957003666</v>
+        <v>-0.2959098466580829</v>
       </c>
       <c r="D92">
-        <v>-0.02977485384509621</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01049933204348855</v>
+      </c>
+      <c r="E92">
+        <v>-0.07342449336509245</v>
+      </c>
+      <c r="F92">
+        <v>0.03496806153416067</v>
+      </c>
+      <c r="G92">
+        <v>-0.03579800398752235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1873388604261768</v>
+        <v>-0.2118984675795682</v>
       </c>
       <c r="C93">
-        <v>-0.3435434605207975</v>
+        <v>-0.3223114947362973</v>
       </c>
       <c r="D93">
-        <v>-0.0502412803170631</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02021729429917862</v>
+      </c>
+      <c r="E93">
+        <v>-0.03481421452538305</v>
+      </c>
+      <c r="F93">
+        <v>-0.02320042894267636</v>
+      </c>
+      <c r="G93">
+        <v>-0.04613752496058694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3604000311305212</v>
+        <v>-0.3513507390917662</v>
       </c>
       <c r="C94">
-        <v>0.1130319809171849</v>
+        <v>0.1692142826577589</v>
       </c>
       <c r="D94">
-        <v>-0.4415904592683459</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4221412029885048</v>
+      </c>
+      <c r="E94">
+        <v>0.1044512189498402</v>
+      </c>
+      <c r="F94">
+        <v>0.08671580636581382</v>
+      </c>
+      <c r="G94">
+        <v>0.503738067100765</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1177425335174961</v>
+        <v>-0.08882324110628176</v>
       </c>
       <c r="C95">
-        <v>0.03680715488478445</v>
+        <v>0.05044454754624761</v>
       </c>
       <c r="D95">
-        <v>0.2917473821776631</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2230156195130691</v>
+      </c>
+      <c r="E95">
+        <v>0.08685135710126256</v>
+      </c>
+      <c r="F95">
+        <v>0.9001075205853709</v>
+      </c>
+      <c r="G95">
+        <v>0.07044638379368082</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1880545535490818</v>
+        <v>-0.18491989075726</v>
       </c>
       <c r="C98">
-        <v>0.03122434124746844</v>
+        <v>0.0488277654509745</v>
       </c>
       <c r="D98">
-        <v>0.2192319559417935</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2085766172644722</v>
+      </c>
+      <c r="E98">
+        <v>0.1460790241988862</v>
+      </c>
+      <c r="F98">
+        <v>-0.1168525131615784</v>
+      </c>
+      <c r="G98">
+        <v>-0.05446585985154628</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01028085774634238</v>
+        <v>-0.007853571761944683</v>
       </c>
       <c r="C101">
-        <v>0.02975162385685182</v>
+        <v>0.02666397500526933</v>
       </c>
       <c r="D101">
-        <v>-0.007731929298990511</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0334393390904176</v>
+      </c>
+      <c r="E101">
+        <v>-0.0850036499223175</v>
+      </c>
+      <c r="F101">
+        <v>0.006183187037683179</v>
+      </c>
+      <c r="G101">
+        <v>-0.06110320105807469</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1230899583271211</v>
+        <v>-0.1255430123776955</v>
       </c>
       <c r="C102">
-        <v>0.06566773667711021</v>
+        <v>0.09879947236704371</v>
       </c>
       <c r="D102">
-        <v>-0.05703071026878384</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06148739746257713</v>
+      </c>
+      <c r="E102">
+        <v>0.005612395161463208</v>
+      </c>
+      <c r="F102">
+        <v>0.02964868540115804</v>
+      </c>
+      <c r="G102">
+        <v>-0.03165880957931329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
